--- a/spliced/walkingToRunning/2023-04-03_16-56-59/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-56-59/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-8.955471992492676</v>
+        <v>8.708540916442871</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.478690624237059</v>
+        <v>0.2552618980407715</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.879208505153656</v>
+        <v>13.9090576171875</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8473980133446053</v>
+        <v>0.1481355747003131</v>
       </c>
       <c r="G2" t="n">
-        <v>1.588083844222318</v>
+        <v>-0.5275314320756641</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.983019445579084</v>
+        <v>-1.595921289858394</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-9.966147422790527</v>
+        <v>24.69548416137696</v>
       </c>
       <c r="D3" t="n">
-        <v>-11.9094123840332</v>
+        <v>-32.37852478027344</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.158937454223633</v>
+        <v>-13.10801219940186</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2863327055701405</v>
+        <v>0.8970806586181024</v>
       </c>
       <c r="G3" t="n">
-        <v>1.038549561151037</v>
+        <v>-2.253284974872135</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.314130942234816</v>
+        <v>-2.632813992924737</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-10.28740406036377</v>
+        <v>9.214871406555176</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.176445960998535</v>
+        <v>-8.127243041992188</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6272034645080566</v>
+        <v>-7.553183078765869</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4185732899536042</v>
+        <v>3.44800701316113</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6667862044383949</v>
+        <v>-1.11263772954487</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.038517436744028</v>
+        <v>-4.982394183493419</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-7.756352424621582</v>
+        <v>-1.296450614929199</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.810521125793457</v>
+        <v>-25.33206176757812</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0995057821273803</v>
+        <v>4.173199653625488</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5196925473462823</v>
+        <v>-0.06218727720976736</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.09992815347398293</v>
+        <v>0.8519693432053494</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.919704219433651</v>
+        <v>-3.113853278584423</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-8.145963668823242</v>
+        <v>3.13936185836792</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.566216945648193</v>
+        <v>1.159258842468261</v>
       </c>
       <c r="E6" t="n">
-        <v>1.980798721313477</v>
+        <v>10.52872467041016</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1898565553616291</v>
+        <v>-5.216508371043581</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09156009195987508</v>
+        <v>-1.343549091778454</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5371766794102246</v>
+        <v>3.495817017180781</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-9.239094734191896</v>
+        <v>-5.014933586120605</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.039865016937256</v>
+        <v>3.021981239318848</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0852295160293579</v>
+        <v>2.716179370880127</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5596155655126746</v>
+        <v>-5.247863911833437</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06378233276735518</v>
+        <v>3.879994811812087</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9416808429813083</v>
+        <v>4.198587553663369</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-5.630505561828613</v>
+        <v>12.84034442901611</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.878634452819824</v>
+        <v>-46.83102416992188</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.353561878204346</v>
+        <v>6.994163036346436</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9283114031971309</v>
+        <v>-3.767358408548382</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4325946389224464</v>
+        <v>6.815083000828341</v>
       </c>
       <c r="H8" t="n">
-        <v>1.973001805899651</v>
+        <v>0.4525070901939874</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.549454212188721</v>
+        <v>39.45174789428711</v>
       </c>
       <c r="D9" t="n">
-        <v>-15.71443271636963</v>
+        <v>18.51260566711425</v>
       </c>
       <c r="E9" t="n">
-        <v>-11.09522819519043</v>
+        <v>-32.22710418701172</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.152326452170372</v>
+        <v>1.195290473119145</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05192710712786075</v>
+        <v>-1.12244814540705</v>
       </c>
       <c r="H9" t="n">
-        <v>1.699892592055635</v>
+        <v>-3.771863303259405</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-9.743830680847168</v>
+        <v>-25.77109146118164</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.745853424072266</v>
+        <v>-4.628503799438477</v>
       </c>
       <c r="E10" t="n">
-        <v>1.909826517105102</v>
+        <v>-10.99930953979492</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.963804200369645</v>
+        <v>4.371577180492927</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04299226902542437</v>
+        <v>-3.279605823973685</v>
       </c>
       <c r="H10" t="n">
-        <v>2.146974648480644</v>
+        <v>-4.797551259944596</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-10.23236083984375</v>
+        <v>-25.15040969848633</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.307059288024902</v>
+        <v>-52.22837066650391</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4284887611865997</v>
+        <v>40.054931640625</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5794400816578483</v>
+        <v>0.8983272033211789</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4982764087422444</v>
+        <v>1.015922405332796</v>
       </c>
       <c r="H11" t="n">
-        <v>2.508258232271478</v>
+        <v>-5.503626271692188</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.6311178207397461</v>
+        <v>-0.4132165908813476</v>
       </c>
       <c r="D12" t="n">
-        <v>1.752397060394287</v>
+        <v>5.698812484741211</v>
       </c>
       <c r="E12" t="n">
-        <v>2.64894962310791</v>
+        <v>7.912927150726318</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1480714187260106</v>
+        <v>-3.768744276456209</v>
       </c>
       <c r="G12" t="n">
-        <v>1.309333065495433</v>
+        <v>1.106249593939454</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4383183037423184</v>
+        <v>3.618037942816487</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8.708540916442871</v>
+        <v>17.88103866577148</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2552618980407715</v>
+        <v>1.754395723342896</v>
       </c>
       <c r="E13" t="n">
-        <v>13.9090576171875</v>
+        <v>14.25908279418945</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1481355747003131</v>
+        <v>-5.589900377533165</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.5275314320756641</v>
+        <v>3.503953431913461</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.595921289858394</v>
+        <v>6.05607688553742</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.69548416137696</v>
+        <v>-0.3170166015625</v>
       </c>
       <c r="D14" t="n">
-        <v>-32.37852478027344</v>
+        <v>-36.44598770141602</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.10801219940186</v>
+        <v>3.271512508392334</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8970806586181024</v>
+        <v>-2.11142427696607</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.253284974872135</v>
+        <v>9.510962799581424</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.632813992924737</v>
+        <v>-0.04490738020751496</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.214871406555176</v>
+        <v>10.27998065948486</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.127243041992188</v>
+        <v>5.400233268737793</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.553183078765869</v>
+        <v>-10.95361423492432</v>
       </c>
       <c r="F15" t="n">
-        <v>3.44800701316113</v>
+        <v>0.3853269297416066</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.11263772954487</v>
+        <v>-2.830002902065919</v>
       </c>
       <c r="H15" t="n">
-        <v>-4.982394183493419</v>
+        <v>-0.4395293002041412</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.296450614929199</v>
+        <v>-23.53899955749512</v>
       </c>
       <c r="D16" t="n">
-        <v>-25.33206176757812</v>
+        <v>-6.704813957214356</v>
       </c>
       <c r="E16" t="n">
-        <v>4.173199653625488</v>
+        <v>-13.04527854919434</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06218727720976736</v>
+        <v>7.810094511321666</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8519693432053494</v>
+        <v>-5.127505102706861</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.113853278584423</v>
+        <v>-1.701906724125914</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.13936185836792</v>
+        <v>17.90056037902832</v>
       </c>
       <c r="D17" t="n">
-        <v>1.159258842468261</v>
+        <v>-19.72356796264648</v>
       </c>
       <c r="E17" t="n">
-        <v>10.52872467041016</v>
+        <v>-5.512706756591797</v>
       </c>
       <c r="F17" t="n">
-        <v>-5.216508371043581</v>
+        <v>4.436884702500196</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.343549091778454</v>
+        <v>-6.79071483312473</v>
       </c>
       <c r="H17" t="n">
-        <v>3.495817017180781</v>
+        <v>-0.1620084203350239</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-5.014933586120605</v>
+        <v>-16.73113822937012</v>
       </c>
       <c r="D18" t="n">
-        <v>3.021981239318848</v>
+        <v>13.58313274383545</v>
       </c>
       <c r="E18" t="n">
-        <v>2.716179370880127</v>
+        <v>5.493848323822021</v>
       </c>
       <c r="F18" t="n">
-        <v>-5.247863911833437</v>
+        <v>-0.8537680622172118</v>
       </c>
       <c r="G18" t="n">
-        <v>3.879994811812087</v>
+        <v>-3.271142317050352</v>
       </c>
       <c r="H18" t="n">
-        <v>4.198587553663369</v>
+        <v>3.793036780432373</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12.84034442901611</v>
+        <v>4.27336597442627</v>
       </c>
       <c r="D19" t="n">
-        <v>-46.83102416992188</v>
+        <v>-17.7934684753418</v>
       </c>
       <c r="E19" t="n">
-        <v>6.994163036346436</v>
+        <v>25.06283569335937</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.767358408548382</v>
+        <v>-7.225753661849682</v>
       </c>
       <c r="G19" t="n">
-        <v>6.815083000828341</v>
+        <v>1.326318728362095</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4525070901939874</v>
+        <v>8.623776784117876</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>39.45174789428711</v>
+        <v>-30.59529876708984</v>
       </c>
       <c r="D20" t="n">
-        <v>18.51260566711425</v>
+        <v>-20.34370040893555</v>
       </c>
       <c r="E20" t="n">
-        <v>-32.22710418701172</v>
+        <v>-32.5362548828125</v>
       </c>
       <c r="F20" t="n">
-        <v>1.195290473119145</v>
+        <v>3.725271386937927</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.12244814540705</v>
+        <v>3.283059017820457</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.771863303259405</v>
+        <v>-3.099974366226723</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-25.77109146118164</v>
+        <v>4.83027458190918</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.628503799438477</v>
+        <v>5.810257911682129</v>
       </c>
       <c r="E21" t="n">
-        <v>-10.99930953979492</v>
+        <v>-21.42179489135743</v>
       </c>
       <c r="F21" t="n">
-        <v>4.371577180492927</v>
+        <v>2.260886770268454</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.279605823973685</v>
+        <v>-3.733322253401921</v>
       </c>
       <c r="H21" t="n">
-        <v>-4.797551259944596</v>
+        <v>0.4708228362480379</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-11.62696266174316</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-21.11956596374512</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-16.67885398864746</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10.02548202544597</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.10485092133122</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5539246020516877</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-13.2412109375</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.214882850646973</v>
+      </c>
+      <c r="E23" t="n">
+        <v>22.37087440490723</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.205630293691351</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1.242692031161299</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.271664639886122</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-15.93152809143066</v>
+      </c>
+      <c r="D24" t="n">
+        <v>19.48006248474121</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.360580921173096</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.934371616203759</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8867856582421496</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.5782981265278011</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>32.82965087890625</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-70.24890899658203</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12.97732639312744</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.666905725004196</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.9611553521678435</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-2.932546598124879</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-13.05622291564941</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.201236724853516</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-37.13468551635742</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.07597643337871512</v>
+      </c>
+      <c r="G26" t="n">
+        <v>15.43764277153591</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-3.051599523783981</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-35.03109741210938</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-2.42187762260437</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-11.56947135925293</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9658543077439407</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-2.044685548512497</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-3.529194889268377</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-34.99357986450195</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-38.73427581787109</v>
+      </c>
+      <c r="E28" t="n">
+        <v>22.45726585388184</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.105489831320192</v>
+      </c>
+      <c r="G28" t="n">
+        <v>13.38752136726634</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-6.598481021626331</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-5.411000728607178</v>
+      </c>
+      <c r="D29" t="n">
+        <v>11.04445457458496</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9.496528625488279</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-1.887021554078156</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.322081098381812</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.926029883130062</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.176581859588623</v>
+      </c>
+      <c r="D30" t="n">
+        <v>12.73018646240234</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.936479568481445</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-4.947177827046182</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.337713633454262</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.887203427509456</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9.547159194946287</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-75.66817474365234</v>
+      </c>
+      <c r="E31" t="n">
+        <v>32.35793304443359</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-5.072363108240451</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.134192296503722</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-3.107403220930567</v>
       </c>
     </row>
   </sheetData>
